--- a/로그인ID.xlsx
+++ b/로그인ID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -66,16 +66,19 @@
     <t>권한</t>
   </si>
   <si>
+    <t>분류</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>관리자</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>사용자</t>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>관리</t>
   </si>
   <si>
     <t>이범수</t>
@@ -110,7 +113,7 @@
     <t>管理部門</t>
   </si>
   <si>
-    <t>관리-팀장</t>
+    <t>팀장</t>
   </si>
   <si>
     <t>정영일</t>
@@ -125,7 +128,7 @@
     <t>成長戦略部門</t>
   </si>
   <si>
-    <t>영업-팀장</t>
+    <t>영업</t>
   </si>
   <si>
     <t>여창석</t>
@@ -167,7 +170,7 @@
     <t>会計チーム</t>
   </si>
   <si>
-    <t>관리-팀원</t>
+    <t>팀원</t>
   </si>
   <si>
     <t>o30230003</t>
@@ -185,7 +188,7 @@
     <t>商品開発チーム</t>
   </si>
   <si>
-    <t>영업-특수</t>
+    <t>특수</t>
   </si>
   <si>
     <t>o30230005</t>
@@ -197,9 +200,6 @@
     <t>朴永生</t>
   </si>
   <si>
-    <t>영업-팀원</t>
-  </si>
-  <si>
     <t>o30230006</t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>営業推進部門</t>
   </si>
   <si>
-    <t>영업관리-팀장</t>
+    <t>영업관리</t>
   </si>
   <si>
     <t>o30230014</t>
@@ -248,7 +248,7 @@
     <t>営業推進チーム</t>
   </si>
   <si>
-    <t>영업관리/물류-팀원</t>
+    <t>영업관리/물류</t>
   </si>
   <si>
     <t>o30230016</t>
@@ -493,6 +493,15 @@
     <t>澤野亮</t>
   </si>
   <si>
+    <t xml:space="preserve">영업
+영업
+영업
+영업
+영업
+영업
+</t>
+  </si>
+  <si>
     <t>o30250004</t>
   </si>
   <si>
@@ -563,7 +572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,14 +596,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
     <font>
@@ -623,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -644,6 +659,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -675,31 +697,31 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1013,7 +1035,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1025,10 +1047,11 @@
     <col min="4" max="4" style="16" width="23.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="23.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="23.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1048,812 +1071,920 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="B3" s="8">
+        <v>9712277</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="7">
-        <v>9712277</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8">
+        <v>2004437</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8">
+        <v>2011772</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7">
-        <v>2004437</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8">
+        <v>2011763</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7">
-        <v>2011772</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="H6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="7">
-        <v>2011763</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+        <v>82</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>43</v>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1"/>
       <c r="B21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>43</v>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>43</v>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>43</v>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>43</v>
+        <v>104</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>43</v>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+        <v>112</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
       <c r="A28" s="1"/>
       <c r="B28" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
+        <v>120</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>43</v>
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+        <v>126</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21.75">
       <c r="A31" s="1"/>
       <c r="B31" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>43</v>
+        <v>75</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="21.75">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
+        <v>132</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+        <v>135</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
       <c r="A34" s="1"/>
       <c r="B34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21.75">
+        <v>58</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>60</v>
+        <v>142</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>43</v>
+        <v>75</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
       <c r="B37" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+        <v>148</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21.75">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>39</v>
+        <v>151</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
       <c r="A39" s="1"/>
       <c r="B39" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="C39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="D39" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>43</v>
+      <c r="G39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
